--- a/control_signal_per_pipe_stage.xlsx
+++ b/control_signal_per_pipe_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPRE381Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C83DED9-4799-4F32-85C4-2D327F127AEA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8DE740-B526-421D-80EE-360EA369E5F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{46516AFA-8383-4921-9F79-CAEC1EFA5A83}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{46516AFA-8383-4921-9F79-CAEC1EFA5A83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Pipeline Stage</t>
   </si>
@@ -61,6 +61,24 @@
   </si>
   <si>
     <t>32 bits: Instruction</t>
+  </si>
+  <si>
+    <t>32 bits: Read data 2</t>
+  </si>
+  <si>
+    <t>32 bits: Read data 1(A)</t>
+  </si>
+  <si>
+    <t>32 bits: sign extended immediate</t>
+  </si>
+  <si>
+    <t>5 bits: instruction 20-16 (rt)</t>
+  </si>
+  <si>
+    <t>5 bits: instruction 15-11 (rd)</t>
+  </si>
+  <si>
+    <t>Possibly need</t>
   </si>
 </sst>
 </file>
@@ -134,10 +152,10 @@
       <xdr:rowOff>20308</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>200114</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1503876</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>120879</xdr:rowOff>
+      <xdr:rowOff>130404</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -472,24 +490,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A061969-741A-4F63-9A1C-5AF1F1190A44}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.77734375" customWidth="1"/>
     <col min="3" max="3" width="23.21875" customWidth="1"/>
     <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" customWidth="1"/>
+    <col min="7" max="7" width="23.77734375" customWidth="1"/>
     <col min="15" max="15" width="48.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -500,22 +525,40 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>

--- a/control_signal_per_pipe_stage.xlsx
+++ b/control_signal_per_pipe_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPRE381Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A8DE740-B526-421D-80EE-360EA369E5F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FFF6BE-599E-4D05-A698-BFDD22C6C5FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{46516AFA-8383-4921-9F79-CAEC1EFA5A83}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{46516AFA-8383-4921-9F79-CAEC1EFA5A83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,26 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>Pipeline Stage</t>
   </si>
   <si>
-    <t>Instruction Fetch</t>
-  </si>
-  <si>
-    <t>Instruction Decode</t>
-  </si>
-  <si>
-    <t>Memory</t>
-  </si>
-  <si>
-    <t>Execute</t>
-  </si>
-  <si>
-    <t>Write Back</t>
-  </si>
-  <si>
     <t>Note: Branch calculation can be in ID stage not mem stage</t>
   </si>
   <si>
@@ -79,6 +64,69 @@
   </si>
   <si>
     <t>Possibly need</t>
+  </si>
+  <si>
+    <t>jal</t>
+  </si>
+  <si>
+    <t>IF/ID</t>
+  </si>
+  <si>
+    <t>ID/EX</t>
+  </si>
+  <si>
+    <t>EX/MEM</t>
+  </si>
+  <si>
+    <t>MEM/WB</t>
+  </si>
+  <si>
+    <t>32 bits: final_jump_address</t>
+  </si>
+  <si>
+    <t>32 bits: branchAddr</t>
+  </si>
+  <si>
+    <t>1 bit: overflow</t>
+  </si>
+  <si>
+    <t>1 bit: zero(for branching)</t>
+  </si>
+  <si>
+    <t>32 bits: alu_out</t>
+  </si>
+  <si>
+    <t>5 bits: write_register</t>
+  </si>
+  <si>
+    <t>14 bits: control_bits(all but SignExt)</t>
+  </si>
+  <si>
+    <t>MemtoReg</t>
+  </si>
+  <si>
+    <t>we_mem</t>
+  </si>
+  <si>
+    <t>we_reg</t>
+  </si>
+  <si>
+    <t>branch</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>halt</t>
+  </si>
+  <si>
+    <t>1 bit: branch_check(for branching)</t>
+  </si>
+  <si>
+    <t>32 bits: mem_read_data</t>
+  </si>
+  <si>
+    <t>32 bits: read_data_2</t>
   </si>
 </sst>
 </file>
@@ -153,7 +201,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1503876</xdr:colOff>
+      <xdr:colOff>1418652</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>130404</xdr:rowOff>
     </xdr:to>
@@ -488,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A061969-741A-4F63-9A1C-5AF1F1190A44}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="152" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -499,73 +547,162 @@
     <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="12.77734375" customWidth="1"/>
     <col min="3" max="3" width="23.21875" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" customWidth="1"/>
-    <col min="7" max="7" width="23.77734375" customWidth="1"/>
-    <col min="15" max="15" width="48.88671875" customWidth="1"/>
+    <col min="4" max="4" width="23.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.33203125" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" customWidth="1"/>
+    <col min="7" max="7" width="29.88671875" customWidth="1"/>
+    <col min="8" max="8" width="27.77734375" customWidth="1"/>
+    <col min="9" max="9" width="36.88671875" customWidth="1"/>
+    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="11" max="11" width="4" customWidth="1"/>
+    <col min="12" max="12" width="10.21875" customWidth="1"/>
+    <col min="13" max="13" width="8.88671875" customWidth="1"/>
+    <col min="15" max="15" width="6.6640625" customWidth="1"/>
+    <col min="16" max="16" width="3.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>10</v>
+      </c>
+      <c r="L4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>25</v>
+      </c>
+      <c r="P4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K5" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
+      <c r="L5" t="s">
+        <v>22</v>
+      </c>
+      <c r="N5" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="15:15" x14ac:dyDescent="0.3">
       <c r="O21" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/control_signal_per_pipe_stage.xlsx
+++ b/control_signal_per_pipe_stage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPRE381Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6FFF6BE-599E-4D05-A698-BFDD22C6C5FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565612F3-F460-411E-956D-2466B5333A86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{46516AFA-8383-4921-9F79-CAEC1EFA5A83}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{46516AFA-8383-4921-9F79-CAEC1EFA5A83}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -538,8 +538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A061969-741A-4F63-9A1C-5AF1F1190A44}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="152" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="152" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/control_signal_per_pipe_stage.xlsx
+++ b/control_signal_per_pipe_stage.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CPRE381Project2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{565612F3-F460-411E-956D-2466B5333A86}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C878CA5-9748-4DCC-8EF3-B5AF8C944C2D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{46516AFA-8383-4921-9F79-CAEC1EFA5A83}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t>Pipeline Stage</t>
   </si>
@@ -99,9 +99,6 @@
     <t>5 bits: write_register</t>
   </si>
   <si>
-    <t>14 bits: control_bits(all but SignExt)</t>
-  </si>
-  <si>
     <t>MemtoReg</t>
   </si>
   <si>
@@ -127,6 +124,12 @@
   </si>
   <si>
     <t>32 bits: read_data_2</t>
+  </si>
+  <si>
+    <t>15 bits: control_bits(SignExt kept cause easier to implement)</t>
+  </si>
+  <si>
+    <t>32 bits: jumpAddress</t>
   </si>
 </sst>
 </file>
@@ -201,9 +204,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1418652</xdr:colOff>
+      <xdr:colOff>1426272</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>130404</xdr:rowOff>
+      <xdr:rowOff>134214</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -538,8 +541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A061969-741A-4F63-9A1C-5AF1F1190A44}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="152" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="152" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -553,7 +556,7 @@
     <col min="7" max="7" width="29.88671875" customWidth="1"/>
     <col min="8" max="8" width="27.77734375" customWidth="1"/>
     <col min="9" max="9" width="36.88671875" customWidth="1"/>
-    <col min="10" max="10" width="18.109375" customWidth="1"/>
+    <col min="10" max="10" width="52.21875" customWidth="1"/>
     <col min="11" max="11" width="4" customWidth="1"/>
     <col min="12" max="12" width="10.21875" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" customWidth="1"/>
@@ -597,13 +600,16 @@
         <v>6</v>
       </c>
       <c r="G3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" t="s">
         <v>7</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>8</v>
       </c>
-      <c r="I3" t="s">
-        <v>21</v>
+      <c r="J3" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
@@ -629,7 +635,7 @@
         <v>19</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
         <v>20</v>
@@ -638,22 +644,22 @@
         <v>10</v>
       </c>
       <c r="L4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M4" t="s">
         <v>22</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>23</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>24</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>25</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -673,13 +679,13 @@
         <v>17</v>
       </c>
       <c r="G5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H5" t="s">
         <v>19</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" t="s">
         <v>20</v>
@@ -688,16 +694,16 @@
         <v>10</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="N5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="P5" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q5" t="s">
         <v>26</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="21" spans="15:15" x14ac:dyDescent="0.3">
